--- a/SAPRegression/Test_Planner/SAP_OTC_Regression.xlsx
+++ b/SAPRegression/Test_Planner/SAP_OTC_Regression.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP_Regression\SAPRegression\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD04C3-F712-41A8-989D-A82C84A411F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CFFA8D-9353-4464-A973-B7BFE1AE8587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>SuteName</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>TestRail_id</t>
-  </si>
-  <si>
-    <t>Create PP with Funder Paid with UI Validations</t>
   </si>
   <si>
     <t>KBE_51_001</t>
@@ -518,7 +515,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,13 +545,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>5488131</v>
@@ -589,12 +586,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,15 +795,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -834,18 +840,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>